--- a/dp_02/receiver/link_budget.xlsx
+++ b/dp_02/receiver/link_budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kavidey/Sync/Mudd/FA24/E157/dp_02/receiver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC9D0A-CE2C-A942-952D-1B1FEBD803FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA13921-809B-2044-B2CC-499735E761FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>Stage</t>
   </si>
@@ -47,12 +47,6 @@
     <t>amplifier</t>
   </si>
   <si>
-    <t>IIP3</t>
-  </si>
-  <si>
-    <t>OIP3</t>
-  </si>
-  <si>
     <t>Gain [dB]</t>
   </si>
   <si>
@@ -113,15 +107,9 @@
     <t>WiFi</t>
   </si>
   <si>
-    <t>Antenna</t>
-  </si>
-  <si>
     <t>VBFZ-2340-S+ BPF</t>
   </si>
   <si>
-    <t>ZX60-2531-M-S+ Amplifier</t>
-  </si>
-  <si>
     <t>ZX05-C24+ Mixer</t>
   </si>
   <si>
@@ -167,16 +155,66 @@
     <t>transmit antenna return loss</t>
   </si>
   <si>
-    <t>f</t>
+    <t>receive antenna input</t>
+  </si>
+  <si>
+    <t>&lt; DANL</t>
+  </si>
+  <si>
+    <t>&lt;DANL</t>
+  </si>
+  <si>
+    <t>attenuator</t>
+  </si>
+  <si>
+    <t>Transmit Antenna</t>
+  </si>
+  <si>
+    <t>Receive Antenna</t>
+  </si>
+  <si>
+    <t>ZFL-1000LN Amplifier</t>
+  </si>
+  <si>
+    <t>ZX60-2531MA+ Amplifier</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>attenuator (3 dB)</t>
+  </si>
+  <si>
+    <t>amplifier (2531MA+)</t>
+  </si>
+  <si>
+    <t>amplifier (1000LN)</t>
+  </si>
+  <si>
+    <t>USE LOW FREQ GAIN</t>
+  </si>
+  <si>
+    <t>Gain @ 2200 MHz [dB]</t>
+  </si>
+  <si>
+    <t>IIP3 [dB]</t>
+  </si>
+  <si>
+    <t>OIP3 [dB]</t>
+  </si>
+  <si>
+    <t>Gain @ 300 MHz [dB]</t>
+  </si>
+  <si>
+    <t>NF [dB]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="##0.00E+0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -228,10 +266,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -240,9 +277,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,108 +510,108 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="4" customWidth="1"/>
     <col min="4" max="20" width="5.83203125" customWidth="1"/>
     <col min="21" max="21" width="11" customWidth="1"/>
     <col min="22" max="22" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="V1" s="8" t="s">
-        <v>26</v>
+      <c r="C1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="V1" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>7</v>
+      <c r="V2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="W2" s="1">
         <v>-10</v>
@@ -587,17 +624,17 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2256</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2296</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>2*C3-D3</f>
         <v>2216</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>2*D3-C3</f>
         <v>2336</v>
       </c>
@@ -607,59 +644,59 @@
       <c r="H3">
         <v>2400</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <f t="shared" ref="I3:N3" si="0">C3-1950</f>
         <v>306</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <f t="shared" si="0"/>
         <v>386</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="O3" s="9">
-        <f>ABS(I3-345)</f>
+      <c r="O3" s="8">
+        <f t="shared" ref="O3:T3" si="1">ABS(I3-345)</f>
         <v>39</v>
       </c>
-      <c r="P3" s="9">
-        <f>ABS(J3-345)</f>
+      <c r="P3" s="8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q3" s="9">
-        <f>ABS(K3-345)</f>
+      <c r="Q3" s="8">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="R3" s="9">
-        <f>ABS(L3-345)</f>
+      <c r="R3" s="8">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="S3" s="9">
-        <f>ABS(M3-345)</f>
+      <c r="S3" s="8">
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="T3" s="9">
-        <f>ABS(N3-345)</f>
+      <c r="T3" s="8">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>8</v>
+      <c r="V3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="W3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -669,50 +706,45 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>-29</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>-29</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4">
-        <v>-80</v>
-      </c>
-      <c r="H4" s="11">
-        <v>-55</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="11">
+        <v>39</v>
+      </c>
+      <c r="C5" s="10">
         <f>10*LOG10(POWER(10,C4/10) * (1-POWER(10, $W$2/10)))</f>
         <v>-29.457574905606755</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>10*LOG10(POWER(10,D4/10) * (1-POWER(10, $W$2/10)))</f>
         <v>-29.457574905606755</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="V5" s="8" t="s">
-        <v>11</v>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="V5" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -720,28 +752,28 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
         <f>C5+$W$3</f>
-        <v>-23.457574905606755</v>
-      </c>
-      <c r="D6" s="11">
+        <v>-25.457574905606755</v>
+      </c>
+      <c r="D6" s="10">
         <f>D5+$W$3</f>
-        <v>-23.457574905606755</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="V6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6">
-        <v>3</v>
+        <v>-25.457574905606755</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="V6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-10</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -749,99 +781,87 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11">
-        <f>C6+20*LOG10(300000000/(C3*1000000) / (4 * PI() * $W$6))</f>
-        <v>-72.508554092274778</v>
-      </c>
-      <c r="D7" s="11">
-        <f>D6+20*LOG10(300000000/(D3*1000000) / (4 * PI() * $W$6))</f>
-        <v>-72.661209860567396</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="3">
-        <v>-80</v>
-      </c>
-      <c r="H7" s="13">
-        <v>-55</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C6+20*LOG10(300000000/(C3*1000000) / (4 * PI() * $W$10))</f>
+        <v>-74.508554092274778</v>
+      </c>
+      <c r="D7" s="10">
+        <f>D6+20*LOG10(300000000/(D3*1000000) / (4 * PI() * $W$10))</f>
+        <v>-74.661209860567396</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="V7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
         <f>C7+6</f>
-        <v>-66.508554092274778</v>
-      </c>
-      <c r="D8" s="12">
+        <v>-68.508554092274778</v>
+      </c>
+      <c r="D8" s="11">
         <f>D7+6</f>
-        <v>-66.661209860567396</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12">
-        <f>G7+6</f>
-        <v>-74</v>
-      </c>
-      <c r="H8" s="12">
-        <f>H7+6</f>
-        <v>-49</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="V8" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>-68.661209860567396</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
         <f>10*LOG10(POWER(10,C8/10) * (1-POWER(10, $W$2/10)))</f>
-        <v>-66.966128997881526</v>
-      </c>
-      <c r="D9" s="12">
+        <v>-68.96612899788154</v>
+      </c>
+      <c r="D9" s="11">
         <f>10*LOG10(POWER(10,D8/10) * (1-POWER(10, $W$2/10)))</f>
-        <v>-67.118784766174159</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12">
-        <f>10*LOG10(POWER(10,G8/10) * (1-POWER(10, $W$2/10)))</f>
-        <v>-74.457574905606776</v>
+        <v>-69.118784766174159</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2">
+        <v>-80</v>
       </c>
       <c r="H9" s="12">
-        <f>10*LOG10(POWER(10,H8/10) * (1-POWER(10, $W$2/10)))</f>
-        <v>-49.457574905606762</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="V9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W9">
-        <v>1.4</v>
+        <v>-55</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="V9" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -849,36 +869,36 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11">
-        <f>C9-$W$9</f>
-        <v>-68.366128997881532</v>
-      </c>
-      <c r="D10" s="11">
-        <f>D9-$W$9</f>
-        <v>-68.518784766174164</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11">
-        <f>G9-$W$9</f>
-        <v>-75.857574905606782</v>
-      </c>
-      <c r="H10" s="11">
-        <f>H9-$W$9</f>
-        <v>-50.857574905606761</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="V10" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="10">
+        <f>C9-$W$13</f>
+        <v>-70.366128997881546</v>
+      </c>
+      <c r="D10" s="10">
+        <f>D9-$W$13</f>
+        <v>-70.518784766174164</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10">
+        <f>G9-$W$13</f>
+        <v>-81.400000000000006</v>
+      </c>
+      <c r="H10" s="10">
+        <f>H9-$W$13</f>
+        <v>-56.4</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="V10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="W10">
-        <v>2020</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -886,76 +906,75 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11">
-        <f>C10+$W$14</f>
-        <v>-35.866128997881532</v>
-      </c>
-      <c r="D11" s="11">
-        <f>D10+$W$14</f>
-        <v>-36.018784766174164</v>
-      </c>
-      <c r="E11" s="11">
-        <f>$W$16 - 3*($W$15-C10)</f>
-        <v>-167.89838699364458</v>
-      </c>
-      <c r="F11" s="11">
-        <f>$W$16 - 3*($W$15-D10)</f>
-        <v>-168.35635429852249</v>
-      </c>
-      <c r="G11" s="13">
-        <v>-35.9</v>
-      </c>
-      <c r="H11" s="13">
-        <v>-36</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="V11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11">
-        <v>2660</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C11" s="10">
+        <f>C10+$W$18</f>
+        <v>-33.366128997881546</v>
+      </c>
+      <c r="D11" s="10">
+        <f>D10+$W$18</f>
+        <v>-33.518784766174164</v>
+      </c>
+      <c r="E11" s="10">
+        <f>$W$21 - 3*($W$20-C10)</f>
+        <v>-176.89838699364464</v>
+      </c>
+      <c r="F11" s="10">
+        <f>$W$21 - 3*($W$20-D10)</f>
+        <v>-177.35635429852249</v>
+      </c>
+      <c r="G11" s="10">
+        <f>G10+$W$18</f>
+        <v>-44.400000000000006</v>
+      </c>
+      <c r="H11" s="10">
+        <f>H10+$W$18</f>
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="I12" s="12">
-        <f t="shared" ref="I12:N12" si="1">C11-$W$19</f>
-        <v>-41.866128997881532</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="1"/>
-        <v>-42.018784766174164</v>
-      </c>
-      <c r="K12" s="12">
-        <f t="shared" si="1"/>
-        <v>-173.89838699364458</v>
-      </c>
-      <c r="L12" s="12">
-        <f t="shared" si="1"/>
-        <v>-174.35635429852249</v>
-      </c>
-      <c r="M12" s="12">
-        <f t="shared" si="1"/>
-        <v>-41.9</v>
-      </c>
-      <c r="N12" s="12">
-        <f t="shared" si="1"/>
-        <v>-42</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="I12" s="11">
+        <f t="shared" ref="I12:N12" si="2">C11-$W$25</f>
+        <v>-39.366128997881546</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="2"/>
+        <v>-39.518784766174164</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="2"/>
+        <v>-182.89838699364464</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="2"/>
+        <v>-183.35635429852249</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="2"/>
+        <v>-50.400000000000006</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="2"/>
+        <v>-25.4</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -963,38 +982,41 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="I13" s="12">
-        <f>I12-$W$22</f>
-        <v>-47.366128997881532</v>
-      </c>
-      <c r="J13" s="12">
-        <f>J12-$W$22</f>
-        <v>-47.518784766174164</v>
-      </c>
-      <c r="K13" s="12">
-        <f>K12-$W$23</f>
-        <v>-193.89838699364458</v>
-      </c>
-      <c r="L13" s="12">
-        <f>L12-$W$24</f>
-        <v>-184.35635429852249</v>
-      </c>
-      <c r="M13" s="12">
-        <f>M12-$W$25</f>
-        <v>-65.900000000000006</v>
-      </c>
-      <c r="N13" s="12">
-        <f>N12-$W$26</f>
-        <v>-62</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>28</v>
+      <c r="I13" s="11">
+        <f>I12-$W$28</f>
+        <v>-44.866128997881546</v>
+      </c>
+      <c r="J13" s="11">
+        <f>J12-$W$28</f>
+        <v>-45.018784766174164</v>
+      </c>
+      <c r="K13" s="11">
+        <f>K12-$W$29</f>
+        <v>-202.89838699364464</v>
+      </c>
+      <c r="L13" s="11">
+        <f>L12-$W$30</f>
+        <v>-193.35635429852249</v>
+      </c>
+      <c r="M13" s="11">
+        <f>M12-$W$31</f>
+        <v>-74.400000000000006</v>
+      </c>
+      <c r="N13" s="11">
+        <f>N12-$W$32</f>
+        <v>-45.4</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1002,41 +1024,44 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="I14" s="12">
-        <f>I13+$W$14</f>
-        <v>-14.866128997881532</v>
-      </c>
-      <c r="J14" s="12">
-        <f>J13+$W$14</f>
-        <v>-15.018784766174164</v>
-      </c>
-      <c r="K14" s="12">
-        <f>MAX($W$16 - 3*($W$15-I13),K13+$W$14)</f>
-        <v>-104.89838699364461</v>
-      </c>
-      <c r="L14" s="12">
-        <f>MAX($W$16 - 3*($W$15-J13),L13+$W$14)</f>
-        <v>-105.35635429852249</v>
-      </c>
-      <c r="M14" s="12">
-        <f>M13+$W$14</f>
-        <v>-33.400000000000006</v>
-      </c>
-      <c r="N14" s="12">
-        <f>N13+$W$14</f>
-        <v>-29.5</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>6</v>
+      <c r="I14" s="11">
+        <f>I13+$W$19</f>
+        <v>-9.8661289978815461</v>
+      </c>
+      <c r="J14" s="11">
+        <f>J13+$W$19</f>
+        <v>-10.018784766174164</v>
+      </c>
+      <c r="K14" s="11">
+        <f>MAX($W$21 - 3*($W$20-I13),K13+$W$18)</f>
+        <v>-100.39838699364464</v>
+      </c>
+      <c r="L14" s="11">
+        <f>MAX($W$21 - 3*($W$20-J13),L13+$W$18)</f>
+        <v>-100.85635429852249</v>
+      </c>
+      <c r="M14" s="11">
+        <f>M13+$W$19</f>
+        <v>-39.400000000000006</v>
+      </c>
+      <c r="N14" s="11">
+        <f>N13+$W$19</f>
+        <v>-10.399999999999999</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="W14">
-        <v>32.5</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1044,37 +1069,37 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="12">
-        <f t="shared" ref="O15:T15" si="2">I14-$W$19</f>
-        <v>-20.866128997881532</v>
-      </c>
-      <c r="P15" s="12">
-        <f t="shared" si="2"/>
-        <v>-21.018784766174164</v>
-      </c>
-      <c r="Q15" s="12">
-        <f t="shared" si="2"/>
-        <v>-110.89838699364461</v>
-      </c>
-      <c r="R15" s="12">
-        <f t="shared" si="2"/>
-        <v>-111.35635429852249</v>
-      </c>
-      <c r="S15" s="12">
-        <f t="shared" si="2"/>
-        <v>-39.400000000000006</v>
-      </c>
-      <c r="T15" s="12">
-        <f t="shared" si="2"/>
-        <v>-35.5</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-2.4</v>
+        <v>49</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I14-3</f>
+        <v>-12.866128997881546</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:N15" si="3">J14-3</f>
+        <v>-13.018784766174164</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="3"/>
+        <v>-103.39838699364464</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="3"/>
+        <v>-103.85635429852249</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="3"/>
+        <v>-42.400000000000006</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="3"/>
+        <v>-13.399999999999999</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15">
+        <v>2660</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1082,159 +1107,709 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" s="12">
-        <f>O15-$W$29</f>
-        <v>-21.866128997881532</v>
-      </c>
-      <c r="P16" s="12">
-        <f>P15-$W$29</f>
-        <v>-22.018784766174164</v>
-      </c>
-      <c r="Q16" s="12">
-        <f>Q15-$W$29</f>
-        <v>-111.89838699364461</v>
-      </c>
-      <c r="R16" s="12">
-        <f>R15-$W$30</f>
-        <v>-155.35635429852249</v>
-      </c>
-      <c r="S16" s="12">
-        <f>S15-$W$31</f>
-        <v>-99.4</v>
-      </c>
-      <c r="T16" s="12">
-        <f>T15-$W$32</f>
-        <v>-92.5</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W16" s="3">
+        <v>51</v>
+      </c>
+      <c r="I16" s="11">
+        <f>I15+$W$35</f>
+        <v>10.133871002118454</v>
+      </c>
+      <c r="J16" s="11">
+        <f>J15+$W$35</f>
+        <v>9.9812152338258358</v>
+      </c>
+      <c r="K16" s="11">
+        <f>MAX($W$37 - 3*($W$36-I15),K15+$W$35)</f>
+        <v>-6.5983869936446382</v>
+      </c>
+      <c r="L16" s="11">
+        <f>MAX($W$37 - 3*($W$36-J15),L15+$W$35)</f>
+        <v>-7.0563542985224927</v>
+      </c>
+      <c r="M16" s="11">
+        <f>M15+$W$35</f>
+        <v>-19.400000000000006</v>
+      </c>
+      <c r="N16" s="11">
+        <f>N15+$W$35</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="O17" s="11">
+        <f t="shared" ref="O17:T17" si="4">I16-$W$25</f>
+        <v>4.1338710021184539</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="4"/>
+        <v>3.9812152338258358</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="4"/>
+        <v>-12.598386993644638</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="4"/>
+        <v>-13.056354298522493</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" si="4"/>
+        <v>-25.400000000000006</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="O18" s="11">
+        <f>O17-$W$41</f>
+        <v>3.1338710021184539</v>
+      </c>
+      <c r="P18" s="11">
+        <f>P17-$W$41</f>
+        <v>2.9812152338258358</v>
+      </c>
+      <c r="Q18" s="11">
+        <f>Q17-$W$41</f>
+        <v>-13.598386993644638</v>
+      </c>
+      <c r="R18" s="11">
+        <f>R17-$W$42</f>
+        <v>-57.056354298522493</v>
+      </c>
+      <c r="S18" s="11">
+        <f>S17-$W$43</f>
+        <v>-85.4</v>
+      </c>
+      <c r="T18" s="11">
+        <f>T17-$W$44</f>
+        <v>-53.4</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2258</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2298</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2216</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2336</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2150</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2400</v>
+      </c>
+      <c r="I21" s="9">
+        <v>308</v>
+      </c>
+      <c r="J21" s="9">
+        <v>349</v>
+      </c>
+      <c r="K21" s="9">
+        <v>266</v>
+      </c>
+      <c r="L21" s="9">
+        <v>386</v>
+      </c>
+      <c r="M21" s="9">
+        <v>200</v>
+      </c>
+      <c r="N21" s="9">
+        <v>450</v>
+      </c>
+      <c r="O21" s="9">
+        <v>41</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>79</v>
+      </c>
+      <c r="R21" s="9">
+        <v>41</v>
+      </c>
+      <c r="S21" s="9">
+        <v>145</v>
+      </c>
+      <c r="T21" s="9">
+        <v>105</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" s="2">
+        <v>27</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="V22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="12">
+        <v>-53.9</v>
+      </c>
+      <c r="D24" s="12">
+        <v>-50.78</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="12">
+        <v>-75</v>
+      </c>
+      <c r="H24" s="12">
+        <v>-45</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="V24" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="12">
+        <v>-62.07</v>
+      </c>
+      <c r="J25" s="12">
+        <v>-59.4</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="12">
+        <v>-59</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="V25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="12">
+        <v>-63.78</v>
+      </c>
+      <c r="J26" s="12">
+        <v>-65.81</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="12">
+        <v>-47.13</v>
+      </c>
+      <c r="J27" s="12">
+        <v>-51.34</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="12">
+        <v>-45</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="V27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="12">
+        <v>-43.68</v>
+      </c>
+      <c r="J28" s="12">
+        <v>-45.86</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="12">
+        <v>-55.06</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="V28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W28">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="12">
+        <v>-22.3</v>
+      </c>
+      <c r="J29" s="12">
+        <v>-22.7</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="12">
+        <v>-30.68</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="V29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="12">
+        <v>-37</v>
+      </c>
+      <c r="J30" s="12">
+        <v>-54</v>
+      </c>
+      <c r="K30" s="2">
+        <v>-54</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="12">
+        <v>-46</v>
+      </c>
+      <c r="N30" s="12">
+        <v>-48.22</v>
+      </c>
+      <c r="O30" s="12">
+        <v>-52</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="12">
+        <v>-54</v>
+      </c>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="V31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V32" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V18" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="V21" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="V22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W22">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="V23" s="3" t="s">
+      <c r="W32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W36" s="2">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="37" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W37" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="V24" s="3" t="s">
+    </row>
+    <row r="41" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V25" s="3" t="s">
+      <c r="W43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="22:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W25">
-        <v>24</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V28" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W30">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W32">
+      <c r="W44">
         <v>57</v>
       </c>
     </row>

--- a/dp_02/receiver/link_budget.xlsx
+++ b/dp_02/receiver/link_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kavidey/Sync/Mudd/FA24/E157/dp_02/receiver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2375DC7F-3824-1B46-898E-78DE0BA79C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8842BB46-890D-044F-ABA5-5265EA2E21F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{581E1F2A-D3C0-42B8-B17D-E235E0C30F20}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="93">
   <si>
     <t>Stage 1</t>
   </si>
@@ -715,26 +715,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2D5A7F-7DFF-4477-AB1E-F70D5D9D3D5D}">
-  <dimension ref="A1:S54"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.83203125" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" customWidth="1"/>
+    <col min="28" max="28" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5" customWidth="1"/>
+    <col min="31" max="31" width="17.1640625" customWidth="1"/>
+    <col min="33" max="33" width="18.83203125" customWidth="1"/>
+    <col min="35" max="35" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -777,8 +788,9 @@
       <c r="Q1" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -812,8 +824,13 @@
       <c r="Q2" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AI2" s="4"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -872,7 +889,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -928,7 +945,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -978,7 +995,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -1030,8 +1047,10 @@
       <c r="Q6" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA6" s="4"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -1086,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>75</v>
       </c>
@@ -1141,7 +1160,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>76</v>
       </c>
@@ -1196,8 +1215,10 @@
         <f>1.380649E-23</f>
         <v>1.3806490000000001E-23</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AE9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1212,42 +1233,43 @@
       </c>
       <c r="F10" s="5">
         <f>'Noise Budget'!E5</f>
-        <v>-159.14675635263779</v>
+        <v>-139.57296176292775</v>
       </c>
       <c r="G10" s="5">
         <f>'Noise Budget'!F5</f>
-        <v>-111.33096948634859</v>
+        <v>-95.934325066055166</v>
       </c>
       <c r="H10" s="5">
         <f>'Noise Budget'!G5</f>
-        <v>-109.55428869383547</v>
+        <v>-88.92199289790689</v>
       </c>
       <c r="I10" s="5">
         <f>'Noise Budget'!H5</f>
-        <v>-115.73233494778357</v>
+        <v>-99.647324823332241</v>
       </c>
       <c r="J10" s="5">
         <f>'Noise Budget'!I5</f>
-        <v>-82.810397499104937</v>
+        <v>-62.64254053161487</v>
       </c>
       <c r="K10" s="5">
         <f>'Noise Budget'!J5</f>
-        <v>-85.810396545038955</v>
+        <v>-65.642539577548888</v>
       </c>
       <c r="L10" s="5">
         <f>'Noise Budget'!K5</f>
-        <v>-63.013244749684418</v>
+        <v>-42.642537760806825</v>
       </c>
       <c r="M10" s="5">
         <f>'Noise Budget'!L5</f>
-        <v>-61.035746118715466</v>
+        <v>-50.403450322786867</v>
       </c>
       <c r="N10" s="5">
         <f>'Noise Budget'!M5</f>
-        <v>-72.647723582657804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-46.632237770649581</v>
+      </c>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1271,14 +1293,15 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" t="s">
-        <v>80</v>
+      <c r="N11">
+        <v>-56.6</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1332,7 @@
         <v>724000000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1331,10 +1354,10 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13">
-        <v>-61.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-28.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1362,7 +1385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1416,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -1470,6 +1493,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
+      <c r="N18">
+        <v>-71</v>
+      </c>
       <c r="Q18" s="4" t="s">
         <v>49</v>
       </c>
@@ -1489,7 +1515,7 @@
         <v>-29.457574905606755</v>
       </c>
       <c r="E19" s="5">
-        <f>D19+20*LOG10(300000000/(E20*1000000) / (4 * PI() * 3))</f>
+        <f>D19+20*LOG10(300000000/(E20*1000000) / (4 * PI() * $A$20))</f>
         <v>-78.508554092274778</v>
       </c>
       <c r="F19" s="5">
@@ -1536,6 +1562,9 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -1605,7 +1634,7 @@
         <v>-29.457574905606755</v>
       </c>
       <c r="E21" s="5">
-        <f>D21+20*LOG10(300000000/(E22*1000000) / (4 * PI() * 3))</f>
+        <f>D21+20*LOG10(300000000/(E22*1000000) / (4 * PI() * $A$20))</f>
         <v>-78.661209860567396</v>
       </c>
       <c r="F21" s="5">
@@ -1983,6 +2012,13 @@
       <c r="B28" t="s">
         <v>17</v>
       </c>
+      <c r="C28">
+        <v>-29</v>
+      </c>
+      <c r="D28" s="5">
+        <f>10*LOG10(POWER(10,C28/10) * (1-POWER(10, $R$15/10)))</f>
+        <v>-29.457574905606755</v>
+      </c>
       <c r="E28" t="s">
         <v>80</v>
       </c>
@@ -2028,6 +2064,12 @@
       <c r="B29" t="s">
         <v>18</v>
       </c>
+      <c r="C29">
+        <v>2258.6999999999998</v>
+      </c>
+      <c r="D29">
+        <v>2258.6999999999998</v>
+      </c>
       <c r="E29">
         <v>2258.6999999999998</v>
       </c>
@@ -2073,6 +2115,13 @@
       <c r="B30" t="s">
         <v>15</v>
       </c>
+      <c r="C30">
+        <v>-29</v>
+      </c>
+      <c r="D30" s="5">
+        <f>10*LOG10(POWER(10,C30/10) * (1-POWER(10, $R$15/10)))</f>
+        <v>-29.457574905606755</v>
+      </c>
       <c r="E30" t="s">
         <v>80</v>
       </c>
@@ -2114,6 +2163,12 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
+      <c r="C31">
+        <v>2298.9</v>
+      </c>
+      <c r="D31">
+        <v>2298.9</v>
+      </c>
       <c r="E31">
         <v>2298.9</v>
       </c>
@@ -2406,50 +2461,53 @@
         <v>-29.457574905606755</v>
       </c>
       <c r="E37" s="5">
-        <f>D37+20*LOG10(300000000/(E38*1000000) / (4 * PI() * 72.3))</f>
-        <v>-106.14889494377215</v>
+        <f>D37+20*LOG10(300000000/(E38*1000000) / (4 * PI() * $A$38))</f>
+        <v>-116.92492917132228</v>
       </c>
       <c r="F37" s="5">
         <f>E37-$R$23</f>
-        <v>-107.54889494377215</v>
+        <v>-118.32492917132228</v>
       </c>
       <c r="G37" s="5">
         <f>F37+$R$28</f>
-        <v>-70.548894943772154</v>
+        <v>-81.324929171322282</v>
       </c>
       <c r="H37" s="5">
         <f>G37-$R$35</f>
-        <v>-76.548894943772154</v>
+        <v>-87.324929171322282</v>
       </c>
       <c r="I37" s="5">
         <f>H37-$R$38</f>
-        <v>-82.048894943772154</v>
+        <v>-92.824929171322282</v>
       </c>
       <c r="J37" s="5">
         <f>I37+$R$29</f>
-        <v>-47.048894943772154</v>
+        <v>-57.824929171322282</v>
       </c>
       <c r="K37" s="5">
         <f>J37-3</f>
-        <v>-50.048894943772154</v>
+        <v>-60.824929171322282</v>
       </c>
       <c r="L37" s="5">
         <f>K37+$R$45</f>
-        <v>-27.048894943772154</v>
+        <v>-37.824929171322282</v>
       </c>
       <c r="M37" s="5">
         <f>L37-$R$35</f>
-        <v>-33.048894943772154</v>
+        <v>-43.824929171322282</v>
       </c>
       <c r="N37" s="5">
         <f>M37-$R$51</f>
-        <v>-34.048894943772154</v>
+        <v>-44.824929171322282</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>250</v>
+      </c>
       <c r="B38" t="s">
         <v>18</v>
       </c>
@@ -2523,44 +2581,44 @@
         <v>-29.457574905606755</v>
       </c>
       <c r="E39" s="5">
-        <f>D39+20*LOG10(300000000/(E40*1000000) / (4 * PI() * 72.3))</f>
-        <v>-106.30155071206477</v>
+        <f>D39+20*LOG10(300000000/(E40*1000000) / (4 * PI() * $A$38))</f>
+        <v>-117.07758493961489</v>
       </c>
       <c r="F39" s="5">
         <f>E39-$R$23</f>
-        <v>-107.70155071206477</v>
+        <v>-118.4775849396149</v>
       </c>
       <c r="G39" s="5">
         <f>F39+$R$28</f>
-        <v>-70.701550712064773</v>
+        <v>-81.4775849396149</v>
       </c>
       <c r="H39" s="5">
         <f>G39-$R$35</f>
-        <v>-76.701550712064773</v>
+        <v>-87.4775849396149</v>
       </c>
       <c r="I39" s="5">
         <f>H39-$R$38</f>
-        <v>-82.201550712064773</v>
+        <v>-92.9775849396149</v>
       </c>
       <c r="J39" s="5">
         <f>I39+$R$29</f>
-        <v>-47.201550712064773</v>
+        <v>-57.9775849396149</v>
       </c>
       <c r="K39" s="5">
         <f>J39-3</f>
-        <v>-50.201550712064773</v>
+        <v>-60.9775849396149</v>
       </c>
       <c r="L39" s="5">
         <f>K39+$R$45</f>
-        <v>-27.201550712064773</v>
+        <v>-37.9775849396149</v>
       </c>
       <c r="M39" s="5">
         <f>L39-$R$35</f>
-        <v>-33.201550712064773</v>
+        <v>-43.9775849396149</v>
       </c>
       <c r="N39" s="5">
         <f>M39-$R$51</f>
-        <v>-34.201550712064773</v>
+        <v>-44.9775849396149</v>
       </c>
       <c r="Q39" t="s">
         <v>65</v>
@@ -3168,7 +3226,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="37" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3176,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B440A1-E6EE-1B4A-9AE8-CD2E35818AE3}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3357,40 +3415,40 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
-        <f>10*LOG10(E4*E7*'Link Budget'!$R$9*1000)</f>
-        <v>-159.14675635263779</v>
+        <f>10*LOG10(E4*E11*'Link Budget'!$R$9*1000)</f>
+        <v>-139.57296176292775</v>
       </c>
       <c r="F5" s="5">
-        <f>10*LOG10(F4*F7*'Link Budget'!$R$9*1000)</f>
-        <v>-111.33096948634859</v>
+        <f>10*LOG10(F4*F11*'Link Budget'!$R$9*1000)</f>
+        <v>-95.934325066055166</v>
       </c>
       <c r="G5" s="5">
-        <f>10*LOG10(G4*G7*'Link Budget'!$R$9*1000)</f>
-        <v>-109.55428869383547</v>
+        <f>10*LOG10(G4*G11*'Link Budget'!$R$9*1000)</f>
+        <v>-88.92199289790689</v>
       </c>
       <c r="H5" s="5">
-        <f>10*LOG10(H4*H7*'Link Budget'!$R$9*1000)</f>
-        <v>-115.73233494778357</v>
+        <f>10*LOG10(H4*H11*'Link Budget'!$R$9*1000)</f>
+        <v>-99.647324823332241</v>
       </c>
       <c r="I5" s="5">
-        <f>10*LOG10(I4*I7*'Link Budget'!$R$9*1000)</f>
-        <v>-82.810397499104937</v>
+        <f>10*LOG10(I4*I11*'Link Budget'!$R$9*1000)</f>
+        <v>-62.64254053161487</v>
       </c>
       <c r="J5" s="5">
-        <f>10*LOG10(J4*J7*'Link Budget'!$R$9*1000)</f>
-        <v>-85.810396545038955</v>
+        <f>10*LOG10(J4*J11*'Link Budget'!$R$9*1000)</f>
+        <v>-65.642539577548888</v>
       </c>
       <c r="K5" s="5">
-        <f>10*LOG10(K4*K7*'Link Budget'!$R$9*1000)</f>
-        <v>-63.013244749684418</v>
+        <f>10*LOG10(K4*K11*'Link Budget'!$R$9*1000)</f>
+        <v>-42.642537760806825</v>
       </c>
       <c r="L5" s="5">
-        <f>10*LOG10(L4*L7*'Link Budget'!$R$9*1000)</f>
-        <v>-61.035746118715466</v>
+        <f>10*LOG10(L4*L11*'Link Budget'!$R$9*1000)</f>
+        <v>-50.403450322786867</v>
       </c>
       <c r="M5" s="5">
-        <f>10*LOG10(M4*M7*'Link Budget'!$R$9*1000)</f>
-        <v>-72.647723582657804</v>
+        <f>10*LOG10(M4*M11*'Link Budget'!$R$9*1000)</f>
+        <v>-46.632237770649581</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
